--- a/xlsx/美帝国主义_intext.xlsx
+++ b/xlsx/美帝国主义_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="683">
   <si>
     <t>美帝国主义</t>
   </si>
@@ -29,49 +29,49 @@
     <t>美国</t>
   </si>
   <si>
-    <t>政策_政策_美國_美帝国主义</t>
+    <t>政策_政策_美国_美帝国主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A7%90%E5%A4%96%E7%BE%8E%E8%BB%8D</t>
   </si>
   <si>
-    <t>駐外美軍</t>
+    <t>驻外美军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%A0%85%E5%90%88%E7%9C%BE%E5%9C%8B</t>
   </si>
   <si>
-    <t>美利堅合眾國</t>
+    <t>美利坚合众国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華人民共和國</t>
+    <t>中华人民共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%9F%93</t>
   </si>
   <si>
-    <t>北韓</t>
+    <t>北韩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF</t>
   </si>
   <si>
-    <t>蘇聯</t>
+    <t>苏联</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%B0%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>冷戰時期</t>
+    <t>冷战时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E7%94%A2%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>共產主義</t>
+    <t>共产主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%B4%E5%A0%B5%E6%94%BF%E7%AD%96</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>帝國</t>
+    <t>帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%9D%E5%9B%BD%E4%B8%BB%E4%B9%89</t>
@@ -107,25 +107,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
   </si>
   <si>
-    <t>國家元首</t>
+    <t>国家元首</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E9%81%B8</t>
   </si>
   <si>
-    <t>民選</t>
+    <t>民选</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>總統</t>
+    <t>总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>羅馬帝國</t>
+    <t>罗马帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%87%E5%B8%9D</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E8%A5%B2</t>
   </si>
   <si>
-    <t>世襲</t>
+    <t>世袭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84</t>
@@ -155,37 +155,34 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>美屬薩摩亞</t>
+    <t>美属萨摩亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>關島</t>
+    <t>关岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>菲律賓</t>
+    <t>菲律宾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>美國政府</t>
+    <t>美国政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%9D%E5%9C%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>帝國主義</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E8%8B%B1%E8%AA%9E%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>牛津英語詞典</t>
+    <t>牛津英语词典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9A%B4%E5%90%9B</t>
@@ -197,19 +194,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E8%A3%81</t>
   </si>
   <si>
-    <t>獨裁</t>
+    <t>独裁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E7%94%A2%E9%BB%A8</t>
   </si>
   <si>
-    <t>共產黨</t>
+    <t>共产党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%B8%E6%AC%8A</t>
   </si>
   <si>
-    <t>霸權</t>
+    <t>霸权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%AD%E6%98%AD%E5%A4%A9%E5%91%BD</t>
@@ -227,7 +224,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>德克薩斯州</t>
+    <t>德克萨斯州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%B7%9E</t>
@@ -239,25 +236,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%85%8B%E6%8B%89%E4%BD%95%E9%A6%AC%E5%B7%9E</t>
   </si>
   <si>
-    <t>俄克拉何馬州</t>
+    <t>俄克拉何马州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>堪薩斯州</t>
+    <t>堪萨斯州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%87%B7%E4%BF%84%E6%98%8E%E5%B7%9E</t>
   </si>
   <si>
-    <t>懷俄明州</t>
+    <t>怀俄明州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>科羅拉多州</t>
+    <t>科罗拉多州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
@@ -275,19 +272,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E6%B3%B0%E5%8B%92</t>
   </si>
   <si>
-    <t>約翰·泰勒</t>
+    <t>约翰·泰勒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>美墨戰爭</t>
+    <t>美墨战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%9F%8E</t>
@@ -311,19 +308,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>內華達州</t>
+    <t>内华达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E4%BB%96%E5%B7%9E</t>
   </si>
   <si>
-    <t>猶他州</t>
+    <t>犹他州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
-    <t>亞利桑那州</t>
+    <t>亚利桑那州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0%E6%98%93%E6%89%8B</t>
@@ -341,7 +338,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%A5%BF%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>美西戰爭</t>
+    <t>美西战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
@@ -359,13 +356,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%91%82%E5%AE%8B</t>
   </si>
   <si>
-    <t>呂宋</t>
+    <t>吕宋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>夏威夷王國</t>
+    <t>夏威夷王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E7%95%99%E5%8D%A1%E6%8B%89%E5%B0%BC%E5%A5%B3%E7%8E%8B</t>
@@ -383,25 +380,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E8%BB%8D%E9%99%B8%E6%88%B0%E9%9A%8A</t>
   </si>
   <si>
-    <t>海軍陸戰隊</t>
+    <t>海军陆战队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E7%AB%8B%E6%86%B2</t>
   </si>
   <si>
-    <t>君主立憲</t>
+    <t>君主立宪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E9%BA%A5%E9%87%91%E8%90%8A</t>
   </si>
   <si>
-    <t>威廉·麥金萊</t>
+    <t>威廉·麦金莱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>夏威夷共和國</t>
+    <t>夏威夷共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%8F%B2%E6%88%98%E4%BA%89</t>
@@ -419,13 +416,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AB%E5%9C%8B%E8%81%AF%E8%BB%8D%E4%BE%B5%E8%8F%AF%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>八國聯軍侵華戰爭</t>
+    <t>八国联军侵华战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E6%88%B0</t>
   </si>
   <si>
-    <t>韓戰</t>
+    <t>韩战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E6%88%98%E4%BA%89</t>
@@ -449,19 +446,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A5%E4%BE%B5%E6%A0%BC%E6%9E%97%E7%B4%8D%E9%81%94</t>
   </si>
   <si>
-    <t>入侵格林納達</t>
+    <t>入侵格林纳达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%85%A5%E4%BE%B5%E5%B7%B4%E6%8B%BF%E9%A6%AC</t>
   </si>
   <si>
-    <t>美國入侵巴拿馬</t>
+    <t>美国入侵巴拿马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E7%81%A3%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>海灣戰爭</t>
+    <t>海湾战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%B4%A2%E6%B2%83%E6%88%98%E4%BA%89</t>
@@ -473,7 +470,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97%E6%88%B0%E7%88%AD_(2001%E5%B9%B4)</t>
   </si>
   <si>
-    <t>阿富汗戰爭 (2001年)</t>
+    <t>阿富汗战争 (2001年)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B%E6%88%98%E4%BA%89</t>
@@ -497,37 +494,37 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%84%AA%E8%B6%8A%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>美國優越主義</t>
+    <t>美国优越主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>新大陸</t>
+    <t>新大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>美國憲法</t>
+    <t>美国宪法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%BB%BA%E5%9C%8B%E5%85%88%E8%B3%A2</t>
   </si>
   <si>
-    <t>美國建國先賢</t>
+    <t>美国建国先贤</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E6%B4%9B%E5%85%8B</t>
   </si>
   <si>
-    <t>約翰·洛克</t>
+    <t>约翰·洛克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E7%91%AA%E6%96%AF%C2%B7%E9%9C%8D%E5%B8%83%E6%96%AF</t>
   </si>
   <si>
-    <t>湯瑪斯·霍布斯</t>
+    <t>汤玛斯·霍布斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A9%AC%E6%96%AF%C2%B7%E6%9D%B0%E6%96%90%E9%80%8A</t>
@@ -539,13 +536,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%93%E7%95%B0%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>美國卓異主義</t>
+    <t>美国卓异主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E8%A5%BF%E6%96%AF%C2%B7%E6%89%98%E5%85%8B%E7%B6%AD%E7%88%BE</t>
   </si>
   <si>
-    <t>亞歷西斯·托克維爾</t>
+    <t>亚历西斯·托克维尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BA%BA%E7%9A%84%E8%B4%9F%E6%8B%85</t>
@@ -557,13 +554,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E6%BC%AB%E7%95%AB</t>
   </si>
   <si>
-    <t>政治漫畫</t>
+    <t>政治漫画</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E9%A0%AD%E6%B5%B7%E9%B5%B0</t>
   </si>
   <si>
-    <t>白頭海鵰</t>
+    <t>白头海鵰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%E6%80%9D%E4%B8%BB%E4%B9%89</t>
@@ -581,31 +578,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E8%A5%BF%E5%AE%89%E9%82%A3%E8%B3%BC%E5%9C%B0%E6%A1%88</t>
   </si>
   <si>
-    <t>路易西安那購地案</t>
+    <t>路易西安那购地案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E9%AD%AF%C2%B7%E5%82%91%E5%85%8B%E6%A3%AE</t>
   </si>
   <si>
-    <t>安德魯·傑克森</t>
+    <t>安德鲁·杰克森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%8D%A8%E7%AB%8B%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>美國獨立革命</t>
+    <t>美国独立革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%80%E7%BE%85%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>門羅主義</t>
+    <t>门罗主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%9D%B1</t>
   </si>
   <si>
-    <t>中東</t>
+    <t>中东</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%A4%E7%AB%8B%E4%B8%BB%E4%B9%89</t>
@@ -617,19 +614,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E8%AB%96</t>
   </si>
   <si>
-    <t>自由意志論</t>
+    <t>自由意志论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E5%A7%86%C2%B7%E5%96%AC%E5%A7%86%E6%96%AF%E5%9F%BA</t>
   </si>
   <si>
-    <t>諾姆·喬姆斯基</t>
+    <t>诺姆·乔姆斯基</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%B0</t>
   </si>
   <si>
-    <t>冷戰</t>
+    <t>冷战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E5%8C%96</t>
@@ -653,7 +650,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E4%BF%9D%E5%AE%88%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>新保守主義</t>
+    <t>新保守主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B0%91%E4%B8%BB%E5%85%9A</t>
@@ -665,7 +662,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E6%B0%91%E4%B8%BB</t>
   </si>
   <si>
-    <t>社會民主</t>
+    <t>社会民主</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%9B%E5%B7%A5%E5%A4%8D%E5%90%88%E4%BD%93</t>
@@ -677,37 +674,37 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E8%B3%87%E6%BA%90</t>
   </si>
   <si>
-    <t>自然資源</t>
+    <t>自然资源</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>資本主義</t>
+    <t>资本主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B5%B7%E8%BB%8D</t>
   </si>
   <si>
-    <t>美國海軍</t>
+    <t>美国海军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第一次世界大戰</t>
+    <t>第一次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E7%88%BE%E4%BB%80%E7%B6%AD%E5%85%8B</t>
   </si>
   <si>
-    <t>布爾什維克</t>
+    <t>布尔什维克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%97%E5%AF%A7</t>
   </si>
   <si>
-    <t>列寧</t>
+    <t>列宁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%93%88%E6%9E%97</t>
@@ -719,7 +716,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%88%E9%80%B2%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>先進國家</t>
+    <t>先进国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E4%B8%96%E7%95%8C%E5%9B%BD%E5%AE%B6</t>
@@ -737,19 +734,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%8B%95%E5%8A%9B</t>
   </si>
   <si>
-    <t>生物動力</t>
+    <t>生物动力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%9C%8B</t>
   </si>
   <si>
-    <t>大國</t>
+    <t>大国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%AC%8A</t>
   </si>
   <si>
-    <t>主權</t>
+    <t>主权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%85%E6%9F%AF</t>
@@ -767,13 +764,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%9A%C2%B7%E5%B8%83%E5%B8%8C%E4%BA%9E</t>
   </si>
   <si>
-    <t>尚·布希亞</t>
+    <t>尚·布希亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E7%8F%BE%E4%BB%A3%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>後現代主義</t>
+    <t>后现代主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E4%BD%9C%E6%88%98%E5%8F%B8%E4%BB%A4%E9%83%A8</t>
@@ -791,19 +788,16 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>伊拉克戰爭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%9D%E7%8E%8B%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>帝王總統</t>
+    <t>帝王总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E9%83%A8%E9%95%B7</t>
   </si>
   <si>
-    <t>國防部長</t>
+    <t>国防部长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E7%BA%B3%E5%BE%B7%C2%B7%E6%8B%89%E5%A7%86%E6%96%AF%E8%8F%B2%E5%B0%94%E5%BE%B7</t>
@@ -815,31 +809,28 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%8F%B2%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>美菲戰爭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%AE%88%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>保守主義</t>
+    <t>保守主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B7%B9%E6%B4%BE</t>
   </si>
   <si>
-    <t>鷹派</t>
+    <t>鹰派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>哈佛大學</t>
+    <t>哈佛大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%B1%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>大英帝國</t>
+    <t>大英帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B3%E7%BF%BC</t>
@@ -851,13 +842,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>新自由主義</t>
+    <t>新自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E5%B8%9D%E5%9C%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>文化帝國主義</t>
+    <t>文化帝国主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%BE%B7%E5%8D%8E%C2%B7%E8%90%A8%E4%B9%89%E5%BE%B7</t>
@@ -869,7 +860,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E6%97%8F%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>種族主義</t>
+    <t>种族主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Matthew_Fraser_(journalist)</t>
@@ -887,7 +878,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>世界大戰</t>
+    <t>世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Columbia_University</t>
@@ -911,13 +902,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%A0%85%E6%B2%BB%E4%B8%96</t>
   </si>
   <si>
-    <t>美利堅治世</t>
+    <t>美利坚治世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%83%B9%E5%80%BC%E8%A7%80%E5%A4%96%E4%BA%A4</t>
   </si>
   <si>
-    <t>價值觀外交</t>
+    <t>价值观外交</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E7%BE%8E%E6%83%85%E7%BB%AA</t>
@@ -929,31 +920,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E5%B8%9D%E5%9C%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>反帝國主義</t>
+    <t>反帝国主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%89%B9%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>卡特主義</t>
+    <t>卡特主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%BE%8E%E5%9C%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>大美國主義</t>
+    <t>大美国主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E4%B8%8D%E8%90%BD%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>日不落帝國</t>
+    <t>日不落帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E7%B6%AD%E5%9F%83%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>蘇維埃帝國</t>
+    <t>苏维埃帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%AE%96%E6%B0%91%E4%B8%BB%E4%B9%89</t>
@@ -965,7 +956,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E9%AD%AF%E9%96%80%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>杜魯門主義</t>
+    <t>杜鲁门主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%81%90%E6%88%98%E4%BA%89</t>
@@ -983,7 +974,7 @@
     <t>https://zh.wikiquote.org/wiki/%E7%BE%8E%E5%BC%8F%E5%B8%9D%E5%9C%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>q-美式帝國主義</t>
+    <t>q-美式帝国主义</t>
   </si>
   <si>
     <t>https://zh.wikiquote.org/wiki/%E7%BE%8E%E5%BC%8F%E6%85%88%E5%96%84</t>
@@ -1061,15 +1052,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E9%82%8A%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>單邊主義</t>
+    <t>单边主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%98</t>
   </si>
   <si>
-    <t>冷战</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E9%98%B6%E6%AE%B5%E5%89%8A%E5%87%8F%E6%88%98%E7%95%A5%E6%AD%A6%E5%99%A8%E6%9D%A1%E7%BA%A6</t>
   </si>
   <si>
@@ -1079,7 +1067,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E5%BD%88%E9%81%93%E9%A3%9B%E5%BD%88%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>反彈道飛彈條約</t>
+    <t>反弹道飞弹条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E4%B8%96%E7%95%8C</t>
@@ -1091,19 +1079,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B2%E9%96%8B%E7%99%BC%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>已開發國家</t>
+    <t>已开发国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E5%9B%9B%E5%A4%A7%E7%B6%93%E6%BF%9F%E9%AB%94</t>
   </si>
   <si>
-    <t>歐洲四大經濟體</t>
+    <t>欧洲四大经济体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
@@ -1115,13 +1103,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AD%90%E4%BA%94%E5%9C%8B</t>
   </si>
   <si>
-    <t>北歐五國</t>
+    <t>北欧五国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
@@ -1139,7 +1127,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
+    <t>丹麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E5%85%B0</t>
@@ -1151,7 +1139,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6</t>
   </si>
   <si>
-    <t>冰島</t>
+    <t>冰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%AC%A7</t>
@@ -1169,19 +1157,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>愛爾蘭共和國</t>
+    <t>爱尔兰共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
+    <t>比利时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%A3%AE%E5%A0%A1</t>
@@ -1211,7 +1199,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%B4%8D%E5%93%A5</t>
   </si>
   <si>
-    <t>摩納哥</t>
+    <t>摩纳哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%AC%A7</t>
@@ -1235,19 +1223,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘</t>
+    <t>希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>賽普勒斯</t>
+    <t>赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96</t>
   </si>
   <si>
-    <t>馬爾他</t>
+    <t>马尔他</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
@@ -1271,7 +1259,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>拉脫維亞</t>
+    <t>拉脱维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
@@ -1295,7 +1283,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>斯洛維尼亞</t>
+    <t>斯洛维尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%81%94%E9%82%A6</t>
@@ -1325,7 +1313,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>新西蘭</t>
+    <t>新西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2</t>
@@ -1349,7 +1337,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
@@ -1361,7 +1349,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80</t>
   </si>
   <si>
-    <t>澳門</t>
+    <t>澳门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1</t>
@@ -1379,7 +1367,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BC%83%E7%99%BC%E9%81%94%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>較發達國家</t>
+    <t>较发达国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BD%97%E5%9C%B0%E4%BA%9A</t>
@@ -1397,25 +1385,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E5%9C%8B%E5%AE%B6%E8%81%AF%E5%90%88%E9%AB%94</t>
   </si>
   <si>
-    <t>獨立國家聯合體</t>
+    <t>独立国家联合体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%88%88%E5%B7%A5%E6%A5%AD%E5%8C%96%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>新興工業化國家</t>
+    <t>新兴工业化国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>白俄羅斯</t>
+    <t>白俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
@@ -1427,7 +1415,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B2%E9%96%8B%E7%99%BC%E5%9C%8B%E5%AE%B6%E6%88%96%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>已開發國家或地區</t>
+    <t>已开发国家或地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2%E5%9B%9B%E5%B0%8F%E9%BE%99</t>
@@ -1451,7 +1439,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%88%A9%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>福利國家</t>
+    <t>福利国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%B8%9A%E5%8C%96%E5%9B%BD%E5%AE%B6</t>
@@ -1463,7 +1451,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AB%E5%A4%A7%E5%B7%A5%E6%A5%AD%E5%9C%8B%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>八大工業國組織</t>
+    <t>八大工业国组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%90%88%E4%BD%9C%E4%B8%8E%E5%8F%91%E5%B1%95%E7%BB%84%E7%BB%87</t>
@@ -1481,7 +1469,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%AD%90%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>西歐聯盟</t>
+    <t>西欧联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%85%AC%E7%BA%A6%E7%BB%84%E7%BB%87</t>
@@ -1511,9 +1499,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
   </si>
   <si>
-    <t>中华人民共和国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
   </si>
   <si>
@@ -1577,13 +1562,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
   </si>
   <si>
-    <t>秘魯</t>
+    <t>秘鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>泰國</t>
+    <t>泰国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E7%A0%96%E5%9B%9B%E5%9B%BD</t>
@@ -1631,7 +1616,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B7%AC%E7%94%B8</t>
   </si>
   <si>
-    <t>緬甸</t>
+    <t>缅甸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8</t>
@@ -1643,7 +1628,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%89%E9%96%80</t>
   </si>
   <si>
-    <t>葉門</t>
+    <t>叶门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E4%B8%B9</t>
@@ -1697,7 +1682,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%90%89%E7%B4%8D%E6%B3%95%E7%B4%A2</t>
   </si>
   <si>
-    <t>布吉納法索</t>
+    <t>布吉纳法索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%B2%E9%9A%86%E5%9C%B0</t>
@@ -1721,19 +1706,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%B4%E7%B4%A2%E6%89%98</t>
   </si>
   <si>
-    <t>賴索托</t>
+    <t>赖索托</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8B%89%E5%A8%81</t>
   </si>
   <si>
-    <t>馬拉威</t>
+    <t>马拉威</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>馬里共和國</t>
+    <t>马里共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%97%A5%E5%B0%94</t>
@@ -1823,13 +1808,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%9E%9C%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>剛果民主共和國</t>
+    <t>刚果民主共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%9A%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>尚比亞</t>
+    <t>尚比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%93%A5%E6%8B%89</t>
@@ -1847,7 +1832,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A3%E7%B4%A2%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>衣索比亞</t>
+    <t>衣索比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E4%B8%B9</t>
@@ -1859,7 +1844,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%98%87%E4%B8%B9</t>
   </si>
   <si>
-    <t>南蘇丹</t>
+    <t>南苏丹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%AB%8B%E7%89%B9%E9%87%8C%E4%BA%9A</t>
@@ -1877,13 +1862,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A4%9A%E7%BE%8E%E5%92%8C%E6%99%AE%E6%9E%97%E8%A5%BF%E6%AF%94</t>
   </si>
   <si>
-    <t>聖多美和普林西比</t>
+    <t>圣多美和普林西比</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A6%AC%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>索馬利亞</t>
+    <t>索马利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E9%87%8C%E4%BA%9A</t>
@@ -1907,7 +1892,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%8A%AA%E9%98%BF%E5%9C%96</t>
   </si>
   <si>
-    <t>瓦努阿圖</t>
+    <t>瓦努阿图</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BE%E7%93%A6%E5%8D%A2</t>
@@ -1931,7 +1916,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%B1%E6%95%97%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>失敗國家</t>
+    <t>失败国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%84%86%E5%BC%B1%E5%9B%BD%E5%AE%B6%E6%8C%87%E6%95%B0</t>
@@ -1979,7 +1964,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%96%B9%E5%85%B1%E5%90%8C%E5%B8%82%E5%A0%B4</t>
   </si>
   <si>
-    <t>南方共同市場</t>
+    <t>南方共同市场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7%E5%90%88%E4%BD%9C%E7%BB%84%E7%BB%87</t>
@@ -2027,7 +2012,7 @@
     <t>https://zh.wikipedia.org/wiki/20%E5%9C%8B%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>20國集團</t>
+    <t>20国集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E7%BB%93%E7%9B%9F%E8%BF%90%E5%8A%A8</t>
@@ -2051,7 +2036,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E6%94%B6%E5%85%A5</t>
   </si>
   <si>
-    <t>國民收入</t>
+    <t>国民收入</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9A%B4%E6%94%BF%E6%8D%AE%E7%82%B9</t>
@@ -2063,13 +2048,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%AB%94%E7%B3%BB%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>世界體系理論</t>
+    <t>世界体系理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E6%98%8E%E8%A1%9D%E7%AA%81%E8%AB%96</t>
   </si>
   <si>
-    <t>文明衝突論</t>
+    <t>文明冲突论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B8%9D%E5%9C%8B%E4%B8%BB%E7%BE%A9</t>
@@ -3203,7 +3188,7 @@
         <v>53</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="G27" t="n">
         <v>67</v>
@@ -3229,10 +3214,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>2</v>
@@ -3258,10 +3243,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -3287,10 +3272,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -3316,10 +3301,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -3345,10 +3330,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>3</v>
@@ -3374,10 +3359,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>2</v>
@@ -3432,10 +3417,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
         <v>67</v>
-      </c>
-      <c r="F35" t="s">
-        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -3461,10 +3446,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" t="s">
         <v>69</v>
-      </c>
-      <c r="F36" t="s">
-        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>2</v>
@@ -3490,10 +3475,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" t="s">
         <v>71</v>
-      </c>
-      <c r="F37" t="s">
-        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>3</v>
@@ -3519,10 +3504,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s">
         <v>73</v>
-      </c>
-      <c r="F38" t="s">
-        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -3548,10 +3533,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s">
         <v>75</v>
-      </c>
-      <c r="F39" t="s">
-        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -3577,10 +3562,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" t="s">
         <v>77</v>
-      </c>
-      <c r="F40" t="s">
-        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -3606,10 +3591,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" t="s">
         <v>79</v>
-      </c>
-      <c r="F41" t="s">
-        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>2</v>
@@ -3635,10 +3620,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" t="s">
         <v>81</v>
-      </c>
-      <c r="F42" t="s">
-        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>12</v>
@@ -3664,10 +3649,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
         <v>83</v>
-      </c>
-      <c r="F43" t="s">
-        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -3693,10 +3678,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s">
         <v>85</v>
-      </c>
-      <c r="F44" t="s">
-        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -3722,10 +3707,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
         <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>4</v>
@@ -3751,10 +3736,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
         <v>89</v>
-      </c>
-      <c r="F46" t="s">
-        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -3780,10 +3765,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
         <v>91</v>
-      </c>
-      <c r="F47" t="s">
-        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -3809,10 +3794,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" t="s">
         <v>93</v>
-      </c>
-      <c r="F48" t="s">
-        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -3838,10 +3823,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
         <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -3867,10 +3852,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -3896,10 +3881,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -3925,10 +3910,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3954,10 +3939,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3983,10 +3968,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>8</v>
@@ -4012,10 +3997,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
         <v>107</v>
-      </c>
-      <c r="F55" t="s">
-        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>7</v>
@@ -4041,10 +4026,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>2</v>
@@ -4070,10 +4055,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>5</v>
@@ -4099,10 +4084,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
-      </c>
-      <c r="F58" t="s">
-        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -4128,10 +4113,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
         <v>115</v>
-      </c>
-      <c r="F59" t="s">
-        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -4157,10 +4142,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
         <v>117</v>
-      </c>
-      <c r="F60" t="s">
-        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -4186,10 +4171,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>114</v>
+      </c>
+      <c r="F61" t="s">
         <v>115</v>
-      </c>
-      <c r="F61" t="s">
-        <v>116</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -4215,10 +4200,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>116</v>
+      </c>
+      <c r="F62" t="s">
         <v>117</v>
-      </c>
-      <c r="F62" t="s">
-        <v>118</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -4244,10 +4229,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>118</v>
+      </c>
+      <c r="F63" t="s">
         <v>119</v>
-      </c>
-      <c r="F63" t="s">
-        <v>120</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -4273,10 +4258,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>120</v>
+      </c>
+      <c r="F64" t="s">
         <v>121</v>
-      </c>
-      <c r="F64" t="s">
-        <v>122</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -4302,10 +4287,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>122</v>
+      </c>
+      <c r="F65" t="s">
         <v>123</v>
-      </c>
-      <c r="F65" t="s">
-        <v>124</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -4331,10 +4316,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>124</v>
+      </c>
+      <c r="F66" t="s">
         <v>125</v>
-      </c>
-      <c r="F66" t="s">
-        <v>126</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -4360,10 +4345,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>126</v>
+      </c>
+      <c r="F67" t="s">
         <v>127</v>
-      </c>
-      <c r="F67" t="s">
-        <v>128</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -4389,10 +4374,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>128</v>
+      </c>
+      <c r="F68" t="s">
         <v>129</v>
-      </c>
-      <c r="F68" t="s">
-        <v>130</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -4418,10 +4403,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>130</v>
+      </c>
+      <c r="F69" t="s">
         <v>131</v>
-      </c>
-      <c r="F69" t="s">
-        <v>132</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -4447,10 +4432,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>132</v>
+      </c>
+      <c r="F70" t="s">
         <v>133</v>
-      </c>
-      <c r="F70" t="s">
-        <v>134</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4476,10 +4461,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>134</v>
+      </c>
+      <c r="F71" t="s">
         <v>135</v>
-      </c>
-      <c r="F71" t="s">
-        <v>136</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -4505,10 +4490,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>136</v>
+      </c>
+      <c r="F72" t="s">
         <v>137</v>
-      </c>
-      <c r="F72" t="s">
-        <v>138</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4534,10 +4519,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>138</v>
+      </c>
+      <c r="F73" t="s">
         <v>139</v>
-      </c>
-      <c r="F73" t="s">
-        <v>140</v>
       </c>
       <c r="G73" t="n">
         <v>3</v>
@@ -4563,10 +4548,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>140</v>
+      </c>
+      <c r="F74" t="s">
         <v>141</v>
-      </c>
-      <c r="F74" t="s">
-        <v>142</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4592,10 +4577,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>142</v>
+      </c>
+      <c r="F75" t="s">
         <v>143</v>
-      </c>
-      <c r="F75" t="s">
-        <v>144</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4621,10 +4606,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>144</v>
+      </c>
+      <c r="F76" t="s">
         <v>145</v>
-      </c>
-      <c r="F76" t="s">
-        <v>146</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4650,10 +4635,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>146</v>
+      </c>
+      <c r="F77" t="s">
         <v>147</v>
-      </c>
-      <c r="F77" t="s">
-        <v>148</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4679,10 +4664,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>148</v>
+      </c>
+      <c r="F78" t="s">
         <v>149</v>
-      </c>
-      <c r="F78" t="s">
-        <v>150</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4708,10 +4693,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>150</v>
+      </c>
+      <c r="F79" t="s">
         <v>151</v>
-      </c>
-      <c r="F79" t="s">
-        <v>152</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4737,10 +4722,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>152</v>
+      </c>
+      <c r="F80" t="s">
         <v>153</v>
-      </c>
-      <c r="F80" t="s">
-        <v>154</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4766,10 +4751,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>154</v>
+      </c>
+      <c r="F81" t="s">
         <v>155</v>
-      </c>
-      <c r="F81" t="s">
-        <v>156</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4795,10 +4780,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>156</v>
+      </c>
+      <c r="F82" t="s">
         <v>157</v>
-      </c>
-      <c r="F82" t="s">
-        <v>158</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4824,10 +4809,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>158</v>
+      </c>
+      <c r="F83" t="s">
         <v>159</v>
-      </c>
-      <c r="F83" t="s">
-        <v>160</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4853,10 +4838,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>160</v>
+      </c>
+      <c r="F84" t="s">
         <v>161</v>
-      </c>
-      <c r="F84" t="s">
-        <v>162</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4882,10 +4867,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>162</v>
+      </c>
+      <c r="F85" t="s">
         <v>163</v>
-      </c>
-      <c r="F85" t="s">
-        <v>164</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4911,10 +4896,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>164</v>
+      </c>
+      <c r="F86" t="s">
         <v>165</v>
-      </c>
-      <c r="F86" t="s">
-        <v>166</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4940,10 +4925,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>166</v>
+      </c>
+      <c r="F87" t="s">
         <v>167</v>
-      </c>
-      <c r="F87" t="s">
-        <v>168</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4969,10 +4954,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>168</v>
+      </c>
+      <c r="F88" t="s">
         <v>169</v>
-      </c>
-      <c r="F88" t="s">
-        <v>170</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4998,10 +4983,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>170</v>
+      </c>
+      <c r="F89" t="s">
         <v>171</v>
-      </c>
-      <c r="F89" t="s">
-        <v>172</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -5027,10 +5012,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>172</v>
+      </c>
+      <c r="F90" t="s">
         <v>173</v>
-      </c>
-      <c r="F90" t="s">
-        <v>174</v>
       </c>
       <c r="G90" t="n">
         <v>5</v>
@@ -5056,10 +5041,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>174</v>
+      </c>
+      <c r="F91" t="s">
         <v>175</v>
-      </c>
-      <c r="F91" t="s">
-        <v>176</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -5085,10 +5070,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>176</v>
+      </c>
+      <c r="F92" t="s">
         <v>177</v>
-      </c>
-      <c r="F92" t="s">
-        <v>178</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5114,10 +5099,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>178</v>
+      </c>
+      <c r="F93" t="s">
         <v>179</v>
-      </c>
-      <c r="F93" t="s">
-        <v>180</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5143,10 +5128,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>180</v>
+      </c>
+      <c r="F94" t="s">
         <v>181</v>
-      </c>
-      <c r="F94" t="s">
-        <v>182</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5172,10 +5157,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>182</v>
+      </c>
+      <c r="F95" t="s">
         <v>183</v>
-      </c>
-      <c r="F95" t="s">
-        <v>184</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5201,10 +5186,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>184</v>
+      </c>
+      <c r="F96" t="s">
         <v>185</v>
-      </c>
-      <c r="F96" t="s">
-        <v>186</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5230,10 +5215,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>186</v>
+      </c>
+      <c r="F97" t="s">
         <v>187</v>
-      </c>
-      <c r="F97" t="s">
-        <v>188</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5259,10 +5244,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>188</v>
+      </c>
+      <c r="F98" t="s">
         <v>189</v>
-      </c>
-      <c r="F98" t="s">
-        <v>190</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5288,10 +5273,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>190</v>
+      </c>
+      <c r="F99" t="s">
         <v>191</v>
-      </c>
-      <c r="F99" t="s">
-        <v>192</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5317,10 +5302,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>192</v>
+      </c>
+      <c r="F100" t="s">
         <v>193</v>
-      </c>
-      <c r="F100" t="s">
-        <v>194</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -5346,10 +5331,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>194</v>
+      </c>
+      <c r="F101" t="s">
         <v>195</v>
-      </c>
-      <c r="F101" t="s">
-        <v>196</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -5375,10 +5360,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>196</v>
+      </c>
+      <c r="F102" t="s">
         <v>197</v>
-      </c>
-      <c r="F102" t="s">
-        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -5404,10 +5389,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>198</v>
+      </c>
+      <c r="F103" t="s">
         <v>199</v>
-      </c>
-      <c r="F103" t="s">
-        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5433,10 +5418,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>200</v>
+      </c>
+      <c r="F104" t="s">
         <v>201</v>
-      </c>
-      <c r="F104" t="s">
-        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -5462,10 +5447,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>202</v>
+      </c>
+      <c r="F105" t="s">
         <v>203</v>
-      </c>
-      <c r="F105" t="s">
-        <v>204</v>
       </c>
       <c r="G105" t="n">
         <v>4</v>
@@ -5491,10 +5476,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>204</v>
+      </c>
+      <c r="F106" t="s">
         <v>205</v>
-      </c>
-      <c r="F106" t="s">
-        <v>206</v>
       </c>
       <c r="G106" t="n">
         <v>5</v>
@@ -5520,10 +5505,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>206</v>
+      </c>
+      <c r="F107" t="s">
         <v>207</v>
-      </c>
-      <c r="F107" t="s">
-        <v>208</v>
       </c>
       <c r="G107" t="n">
         <v>4</v>
@@ -5549,10 +5534,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>208</v>
+      </c>
+      <c r="F108" t="s">
         <v>209</v>
-      </c>
-      <c r="F108" t="s">
-        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>9</v>
@@ -5578,10 +5563,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>210</v>
+      </c>
+      <c r="F109" t="s">
         <v>211</v>
-      </c>
-      <c r="F109" t="s">
-        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>3</v>
@@ -5607,10 +5592,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>212</v>
+      </c>
+      <c r="F110" t="s">
         <v>213</v>
-      </c>
-      <c r="F110" t="s">
-        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5636,10 +5621,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>214</v>
+      </c>
+      <c r="F111" t="s">
         <v>215</v>
-      </c>
-      <c r="F111" t="s">
-        <v>216</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -5665,10 +5650,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>216</v>
+      </c>
+      <c r="F112" t="s">
         <v>217</v>
-      </c>
-      <c r="F112" t="s">
-        <v>218</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5694,10 +5679,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>218</v>
+      </c>
+      <c r="F113" t="s">
         <v>219</v>
-      </c>
-      <c r="F113" t="s">
-        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>2</v>
@@ -5723,10 +5708,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>220</v>
+      </c>
+      <c r="F114" t="s">
         <v>221</v>
-      </c>
-      <c r="F114" t="s">
-        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5752,10 +5737,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>222</v>
+      </c>
+      <c r="F115" t="s">
         <v>223</v>
-      </c>
-      <c r="F115" t="s">
-        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5781,10 +5766,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>224</v>
+      </c>
+      <c r="F116" t="s">
         <v>225</v>
-      </c>
-      <c r="F116" t="s">
-        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5810,10 +5795,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>226</v>
+      </c>
+      <c r="F117" t="s">
         <v>227</v>
-      </c>
-      <c r="F117" t="s">
-        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5839,10 +5824,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>228</v>
+      </c>
+      <c r="F118" t="s">
         <v>229</v>
-      </c>
-      <c r="F118" t="s">
-        <v>230</v>
       </c>
       <c r="G118" t="n">
         <v>5</v>
@@ -5868,10 +5853,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>230</v>
+      </c>
+      <c r="F119" t="s">
         <v>231</v>
-      </c>
-      <c r="F119" t="s">
-        <v>232</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5897,10 +5882,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>232</v>
+      </c>
+      <c r="F120" t="s">
         <v>233</v>
-      </c>
-      <c r="F120" t="s">
-        <v>234</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5926,10 +5911,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>234</v>
+      </c>
+      <c r="F121" t="s">
         <v>235</v>
-      </c>
-      <c r="F121" t="s">
-        <v>236</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5955,10 +5940,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>236</v>
+      </c>
+      <c r="F122" t="s">
         <v>237</v>
-      </c>
-      <c r="F122" t="s">
-        <v>238</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5984,10 +5969,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>238</v>
+      </c>
+      <c r="F123" t="s">
         <v>239</v>
-      </c>
-      <c r="F123" t="s">
-        <v>240</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6013,10 +5998,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>240</v>
+      </c>
+      <c r="F124" t="s">
         <v>241</v>
-      </c>
-      <c r="F124" t="s">
-        <v>242</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -6042,10 +6027,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>242</v>
+      </c>
+      <c r="F125" t="s">
         <v>243</v>
-      </c>
-      <c r="F125" t="s">
-        <v>244</v>
       </c>
       <c r="G125" t="n">
         <v>4</v>
@@ -6071,10 +6056,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>244</v>
+      </c>
+      <c r="F126" t="s">
         <v>245</v>
-      </c>
-      <c r="F126" t="s">
-        <v>246</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6100,10 +6085,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>246</v>
+      </c>
+      <c r="F127" t="s">
         <v>247</v>
-      </c>
-      <c r="F127" t="s">
-        <v>248</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6129,10 +6114,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>248</v>
+      </c>
+      <c r="F128" t="s">
         <v>249</v>
-      </c>
-      <c r="F128" t="s">
-        <v>250</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6158,10 +6143,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>250</v>
+      </c>
+      <c r="F129" t="s">
         <v>251</v>
-      </c>
-      <c r="F129" t="s">
-        <v>252</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6187,10 +6172,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>252</v>
+      </c>
+      <c r="F130" t="s">
         <v>253</v>
-      </c>
-      <c r="F130" t="s">
-        <v>254</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6216,10 +6201,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>254</v>
+      </c>
+      <c r="F131" t="s">
         <v>255</v>
-      </c>
-      <c r="F131" t="s">
-        <v>256</v>
       </c>
       <c r="G131" t="n">
         <v>4</v>
@@ -6245,10 +6230,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F132" t="s">
-        <v>258</v>
+        <v>153</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -6274,10 +6259,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F133" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6303,10 +6288,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F134" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6332,10 +6317,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F135" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6361,10 +6346,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F136" t="s">
-        <v>266</v>
+        <v>129</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6390,10 +6375,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F137" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G137" t="n">
         <v>5</v>
@@ -6419,10 +6404,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F138" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6448,10 +6433,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F139" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6477,10 +6462,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F140" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G140" t="n">
         <v>3</v>
@@ -6506,10 +6491,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F141" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G141" t="n">
         <v>2</v>
@@ -6535,10 +6520,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F142" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6564,10 +6549,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F143" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G143" t="n">
         <v>6</v>
@@ -6593,10 +6578,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F144" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6622,10 +6607,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F145" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6651,10 +6636,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F146" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6680,10 +6665,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F147" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G147" t="n">
         <v>2</v>
@@ -6709,10 +6694,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F148" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G148" t="n">
         <v>3</v>
@@ -6738,10 +6723,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F149" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6767,10 +6752,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F150" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6796,10 +6781,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F151" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6825,10 +6810,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F152" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6854,10 +6839,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F153" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6883,10 +6868,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F154" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6912,10 +6897,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F155" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6941,10 +6926,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F156" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6970,10 +6955,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F157" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6999,10 +6984,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F158" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7028,10 +7013,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F159" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7057,10 +7042,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F160" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7086,10 +7071,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F161" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7115,10 +7100,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F162" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7144,10 +7129,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F163" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7173,10 +7158,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F164" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7202,10 +7187,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F165" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7231,10 +7216,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F166" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7260,10 +7245,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F167" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7289,10 +7274,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F168" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G168" t="n">
         <v>7</v>
@@ -7318,10 +7303,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F169" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7347,10 +7332,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F170" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G170" t="n">
         <v>2</v>
@@ -7376,10 +7361,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F171" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7405,10 +7390,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F172" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7434,10 +7419,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F173" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7463,10 +7448,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F174" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7492,10 +7477,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F175" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7521,10 +7506,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F176" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7550,10 +7535,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F177" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7579,10 +7564,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F178" t="s">
-        <v>350</v>
+        <v>203</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7608,10 +7593,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F179" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7637,10 +7622,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F180" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7666,10 +7651,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F181" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7695,13 +7680,13 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F182" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H182" t="s">
         <v>4</v>
@@ -7724,10 +7709,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F183" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7753,10 +7738,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F184" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7782,10 +7767,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F185" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7811,10 +7796,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F186" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7840,10 +7825,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F187" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G187" t="n">
         <v>2</v>
@@ -7869,10 +7854,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F188" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7898,10 +7883,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F189" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7927,10 +7912,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F190" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7956,10 +7941,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F191" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7985,10 +7970,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F192" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8014,10 +7999,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F193" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8043,10 +8028,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F194" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G194" t="n">
         <v>2</v>
@@ -8072,10 +8057,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F195" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8101,10 +8086,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F196" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8130,10 +8115,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F197" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G197" t="n">
         <v>2</v>
@@ -8159,10 +8144,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F198" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8188,10 +8173,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F199" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8217,10 +8202,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F200" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8246,10 +8231,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F201" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8275,10 +8260,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F202" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8304,10 +8289,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F203" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8333,10 +8318,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F204" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G204" t="n">
         <v>2</v>
@@ -8362,10 +8347,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F205" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8391,10 +8376,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F206" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8420,10 +8405,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F207" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8449,10 +8434,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F208" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8478,10 +8463,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F209" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8507,10 +8492,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F210" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8536,10 +8521,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F211" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8565,10 +8550,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F212" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8594,10 +8579,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F213" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8623,10 +8608,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F214" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8652,10 +8637,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F215" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8681,10 +8666,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F216" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8710,10 +8695,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F217" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8739,10 +8724,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F218" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8768,10 +8753,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F219" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G219" t="n">
         <v>2</v>
@@ -8797,10 +8782,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F220" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8826,10 +8811,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F221" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8855,10 +8840,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F222" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8884,10 +8869,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F223" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G223" t="n">
         <v>4</v>
@@ -8913,10 +8898,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F224" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8942,10 +8927,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F225" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8971,10 +8956,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F226" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9000,10 +8985,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F227" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9029,10 +9014,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F228" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G228" t="n">
         <v>2</v>
@@ -9058,10 +9043,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F229" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G229" t="n">
         <v>2</v>
@@ -9087,10 +9072,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F230" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9116,10 +9101,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F231" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9145,10 +9130,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F232" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9174,10 +9159,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F233" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9203,10 +9188,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F234" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G234" t="n">
         <v>2</v>
@@ -9232,10 +9217,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F235" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9261,10 +9246,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F236" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9290,10 +9275,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F237" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G237" t="n">
         <v>2</v>
@@ -9319,10 +9304,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F238" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9348,10 +9333,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F239" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9377,10 +9362,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F240" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9406,10 +9391,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F241" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9435,10 +9420,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F242" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9464,10 +9449,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F243" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9493,10 +9478,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F244" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9522,10 +9507,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F245" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G245" t="n">
         <v>3</v>
@@ -9551,10 +9536,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F246" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9580,10 +9565,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F247" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9609,10 +9594,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F248" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9638,10 +9623,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F249" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9667,10 +9652,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F250" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9696,10 +9681,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F251" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9725,10 +9710,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F252" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G252" t="n">
         <v>2</v>
@@ -9754,13 +9739,13 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F253" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H253" t="s">
         <v>4</v>
@@ -9783,10 +9768,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F254" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G254" t="n">
         <v>2</v>
@@ -9812,10 +9797,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F255" t="s">
-        <v>498</v>
+        <v>10</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9841,10 +9826,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="F256" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="G256" t="n">
         <v>2</v>
@@ -9870,10 +9855,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="F257" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9899,10 +9884,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="F258" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="G258" t="n">
         <v>2</v>
@@ -9928,10 +9913,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="F259" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="G259" t="n">
         <v>2</v>
@@ -9957,10 +9942,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F260" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9986,10 +9971,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="F261" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10015,10 +10000,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F262" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10044,10 +10029,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="F263" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10073,10 +10058,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="F264" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10102,10 +10087,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="F265" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10131,10 +10116,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="F266" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10160,10 +10145,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="F267" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10189,10 +10174,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="F268" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10218,10 +10203,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="F269" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10247,10 +10232,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="F270" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10276,10 +10261,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="F271" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10305,10 +10290,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="F272" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10334,10 +10319,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="F273" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10363,10 +10348,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="F274" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10392,10 +10377,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="F275" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10421,10 +10406,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="F276" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10450,10 +10435,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="F277" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10479,10 +10464,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="F278" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10508,10 +10493,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="F279" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10537,10 +10522,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="F280" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="G280" t="n">
         <v>3</v>
@@ -10566,10 +10551,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="F281" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10595,10 +10580,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="F282" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10624,13 +10609,13 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F283" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="G283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H283" t="s">
         <v>4</v>
@@ -10653,10 +10638,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="F284" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="G284" t="n">
         <v>2</v>
@@ -10682,10 +10667,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="F285" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10711,10 +10696,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="F286" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10740,10 +10725,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="F287" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10769,10 +10754,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="F288" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10798,10 +10783,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="F289" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="G289" t="n">
         <v>3</v>
@@ -10827,10 +10812,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="F290" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10856,10 +10841,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="F291" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10885,10 +10870,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="F292" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10914,10 +10899,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="F293" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10943,10 +10928,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="F294" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -10972,10 +10957,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="F295" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11001,10 +10986,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="F296" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11030,10 +11015,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="F297" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="G297" t="n">
         <v>2</v>
@@ -11059,10 +11044,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="F298" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11088,10 +11073,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="F299" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11117,10 +11102,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="F300" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11146,10 +11131,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="F301" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11175,10 +11160,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="F302" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11204,10 +11189,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="F303" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11233,10 +11218,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="F304" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11262,10 +11247,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="F305" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11291,10 +11276,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="F306" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11320,10 +11305,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="F307" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11349,10 +11334,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="F308" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11378,10 +11363,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="F309" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11407,10 +11392,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F310" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11436,10 +11421,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="F311" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11465,10 +11450,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="F312" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11494,10 +11479,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="F313" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11523,10 +11508,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="F314" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11552,10 +11537,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="F315" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11581,10 +11566,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="F316" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11610,10 +11595,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="F317" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11639,10 +11624,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="F318" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11668,10 +11653,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="F319" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11697,10 +11682,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="F320" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11726,10 +11711,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="F321" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11755,10 +11740,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="F322" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11784,10 +11769,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="F323" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11813,10 +11798,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="F324" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11842,10 +11827,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="F325" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -11871,10 +11856,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="F326" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -11900,10 +11885,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="F327" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -11929,10 +11914,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="F328" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -11958,10 +11943,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="F329" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -11987,10 +11972,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="F330" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12016,10 +12001,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="F331" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12045,10 +12030,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="F332" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12074,10 +12059,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="F333" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12103,10 +12088,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="F334" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12132,10 +12117,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="F335" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12161,10 +12146,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="F336" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12190,10 +12175,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="F337" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12219,10 +12204,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="F338" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12248,10 +12233,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="F339" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12277,10 +12262,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="F340" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12306,10 +12291,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="F341" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12335,10 +12320,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="F342" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12364,10 +12349,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="F343" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12393,10 +12378,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="F344" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12422,10 +12407,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="F345" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12451,10 +12436,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="F346" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12480,10 +12465,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="F347" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12509,10 +12494,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="F348" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12538,10 +12523,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="F349" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12567,10 +12552,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="F350" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="G350" t="n">
         <v>4</v>
@@ -12596,10 +12581,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="F351" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
